--- a/SEP/4. Testing/AcceptanceTestCase_HuyenLe0.2.xlsx
+++ b/SEP/4. Testing/AcceptanceTestCase_HuyenLe0.2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="285" windowWidth="14805" windowHeight="7830" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="285" windowWidth="14805" windowHeight="7830"/>
   </bookViews>
   <sheets>
     <sheet name="Revision" sheetId="3" r:id="rId1"/>
@@ -595,9 +595,6 @@
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -607,6 +604,9 @@
     </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1184,8 +1184,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1196,66 +1196,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="10"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="9"/>
     </row>
     <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="10" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="B3" s="13">
-        <v>41128</v>
-      </c>
-      <c r="C3" s="12" t="s">
+      <c r="B3" s="12">
+        <v>41117</v>
+      </c>
+      <c r="C3" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="B4" s="13">
-        <v>41129</v>
-      </c>
-      <c r="C4" s="12" t="s">
+      <c r="B4" s="12">
+        <v>41119</v>
+      </c>
+      <c r="C4" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="11">
         <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="B5" s="13">
-        <v>41130</v>
-      </c>
-      <c r="C5" s="12" t="s">
+      <c r="B5" s="12">
+        <v>41120</v>
+      </c>
+      <c r="C5" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="11">
         <v>1.2</v>
       </c>
     </row>
@@ -1272,7 +1272,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -1304,7 +1304,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="48" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -1321,7 +1321,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="48" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -1338,7 +1338,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="48" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -1355,7 +1355,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="72" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="48" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>4</v>
       </c>
@@ -1372,7 +1372,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="5" customFormat="1" ht="48" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" s="5" customFormat="1" ht="36" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>5</v>
       </c>
@@ -1389,7 +1389,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="5" customFormat="1" ht="48" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" s="5" customFormat="1" ht="36" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>6</v>
       </c>
@@ -1406,7 +1406,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" s="5" customFormat="1" ht="36" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>7</v>
       </c>
@@ -1440,7 +1440,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="48" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>9</v>
       </c>
@@ -1457,7 +1457,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="48" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>10</v>
       </c>
@@ -1474,7 +1474,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="72" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="48" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>11</v>
       </c>
@@ -1491,7 +1491,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="48" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>12</v>
       </c>
@@ -1508,7 +1508,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>13</v>
       </c>
@@ -1525,7 +1525,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="84" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>14</v>
       </c>
@@ -1542,7 +1542,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="48" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>15</v>
       </c>
@@ -1559,7 +1559,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="24" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>16</v>
       </c>
@@ -1576,7 +1576,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="48" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="24" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>17</v>
       </c>
@@ -1593,7 +1593,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="48" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>18</v>
       </c>
@@ -1610,7 +1610,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="48" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>19</v>
       </c>
@@ -1627,7 +1627,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="48" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>20</v>
       </c>
@@ -1661,7 +1661,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="48" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <v>22</v>
       </c>
@@ -1678,7 +1678,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="48" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <v>23</v>
       </c>
@@ -1695,7 +1695,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="48" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <v>24</v>
       </c>
@@ -1712,7 +1712,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="48" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
         <v>25</v>
       </c>
@@ -1729,7 +1729,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="48" x14ac:dyDescent="0.25">
       <c r="A27" s="8">
         <v>26</v>
       </c>
@@ -1746,7 +1746,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="48" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
         <v>27</v>
       </c>
@@ -1763,7 +1763,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="48" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A29" s="8">
         <v>28</v>
       </c>
@@ -1780,7 +1780,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="48" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A30" s="8">
         <v>29</v>
       </c>
@@ -1797,7 +1797,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="48" x14ac:dyDescent="0.25">
       <c r="A31" s="8">
         <v>30</v>
       </c>
@@ -1814,7 +1814,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A32" s="8">
         <v>31</v>
       </c>
@@ -1831,7 +1831,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="48" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A33" s="8">
         <v>32</v>
       </c>
@@ -1848,7 +1848,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="48" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A34" s="8">
         <v>33</v>
       </c>
@@ -1865,7 +1865,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="48" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A35" s="8">
         <v>34</v>
       </c>
@@ -1882,7 +1882,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="48" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A36" s="8">
         <v>35</v>
       </c>
@@ -1899,7 +1899,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A37" s="8">
         <v>36</v>
       </c>
@@ -1916,7 +1916,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="48" x14ac:dyDescent="0.25">
       <c r="A38" s="8">
         <v>37</v>
       </c>
@@ -1933,7 +1933,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="72" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="48" x14ac:dyDescent="0.25">
       <c r="A39" s="8">
         <v>38</v>
       </c>
@@ -1950,7 +1950,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="48" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A40" s="8">
         <v>39</v>
       </c>
@@ -1967,7 +1967,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="48" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A41" s="8">
         <v>40</v>
       </c>
@@ -1984,7 +1984,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="48" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A42" s="8">
         <v>41</v>
       </c>
@@ -2001,7 +2001,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="48" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A43" s="8">
         <v>42</v>
       </c>
@@ -2018,7 +2018,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" ht="48" x14ac:dyDescent="0.25">
       <c r="A44" s="8">
         <v>43</v>
       </c>
@@ -2035,7 +2035,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="48" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A45" s="8">
         <v>44</v>
       </c>
@@ -2052,7 +2052,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="48" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A46" s="8">
         <v>45</v>
       </c>
@@ -2069,7 +2069,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="48" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A47" s="8">
         <v>46</v>
       </c>
